--- a/N_lim/output/phe_ile_same.xlsx
+++ b/N_lim/output/phe_ile_same.xlsx
@@ -14,441 +14,453 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
+  <si>
+    <t>CHO1</t>
+  </si>
+  <si>
+    <t>TRX2</t>
+  </si>
+  <si>
+    <t>LEU4</t>
+  </si>
+  <si>
+    <t>YLR028C</t>
+  </si>
+  <si>
+    <t>ARG7</t>
+  </si>
+  <si>
+    <t>YDR023W</t>
+  </si>
+  <si>
+    <t>YMR246W</t>
+  </si>
+  <si>
+    <t>NCE103</t>
+  </si>
+  <si>
+    <t>YND1</t>
+  </si>
+  <si>
+    <t>SHM2</t>
+  </si>
+  <si>
+    <t>YNK1</t>
+  </si>
+  <si>
+    <t>YFR030W</t>
+  </si>
+  <si>
+    <t>TRP4</t>
+  </si>
+  <si>
+    <t>ARG5,6</t>
+  </si>
+  <si>
+    <t>LYS1</t>
+  </si>
+  <si>
+    <t>TRR1</t>
+  </si>
+  <si>
+    <t>YMR278W</t>
+  </si>
+  <si>
+    <t>ADE12</t>
+  </si>
+  <si>
+    <t>HIS2</t>
+  </si>
+  <si>
+    <t>ALE1</t>
+  </si>
+  <si>
+    <t>SER1</t>
+  </si>
+  <si>
+    <t>YGL062W</t>
+  </si>
+  <si>
+    <t>YLR043C</t>
+  </si>
+  <si>
+    <t>GLN1</t>
+  </si>
+  <si>
+    <t>CDC60</t>
+  </si>
+  <si>
+    <t>CTP1</t>
+  </si>
+  <si>
+    <t>PPA2</t>
+  </si>
+  <si>
+    <t>GDH2</t>
+  </si>
+  <si>
+    <t>YPL023C</t>
+  </si>
+  <si>
+    <t>YOR222W</t>
+  </si>
+  <si>
+    <t>YBR249C</t>
+  </si>
+  <si>
+    <t>YML106W</t>
+  </si>
+  <si>
+    <t>YMR271C</t>
+  </si>
+  <si>
+    <t>YAL038W</t>
+  </si>
+  <si>
+    <t>HIS3</t>
+  </si>
+  <si>
+    <t>APA1</t>
+  </si>
+  <si>
+    <t>PSD1</t>
+  </si>
+  <si>
+    <t>YER099C</t>
+  </si>
+  <si>
+    <t>PGK1</t>
+  </si>
+  <si>
+    <t>YOL086C</t>
+  </si>
+  <si>
+    <t>YDL168W</t>
+  </si>
+  <si>
+    <t>CDS1</t>
+  </si>
   <si>
     <t>WRS1</t>
   </si>
   <si>
+    <t>LYS12</t>
+  </si>
+  <si>
+    <t>MET2</t>
+  </si>
+  <si>
+    <t>VAS1</t>
+  </si>
+  <si>
+    <t>SHM1</t>
+  </si>
+  <si>
+    <t>ARO1</t>
+  </si>
+  <si>
+    <t>LYS4</t>
+  </si>
+  <si>
+    <t>AGC1</t>
+  </si>
+  <si>
+    <t>YBR121C</t>
+  </si>
+  <si>
+    <t>FUM1</t>
+  </si>
+  <si>
+    <t>YHR011W</t>
+  </si>
+  <si>
+    <t>DPS1</t>
+  </si>
+  <si>
+    <t>ARO7</t>
+  </si>
+  <si>
+    <t>FBA1</t>
+  </si>
+  <si>
+    <t>ARO8</t>
+  </si>
+  <si>
+    <t>YBR145W</t>
+  </si>
+  <si>
+    <t>MET6</t>
+  </si>
+  <si>
+    <t>YLR060W</t>
+  </si>
+  <si>
+    <t>YJR073C</t>
+  </si>
+  <si>
+    <t>YDR226W</t>
+  </si>
+  <si>
+    <t>YJR109C</t>
+  </si>
+  <si>
+    <t>HIS4</t>
+  </si>
+  <si>
+    <t>YKR067W</t>
+  </si>
+  <si>
+    <t>ILV2</t>
+  </si>
+  <si>
+    <t>THR4</t>
+  </si>
+  <si>
+    <t>YMR120C</t>
+  </si>
+  <si>
+    <t>ILS1</t>
+  </si>
+  <si>
+    <t>TRP5</t>
+  </si>
+  <si>
+    <t>PRO2</t>
+  </si>
+  <si>
+    <t>PRO1</t>
+  </si>
+  <si>
+    <t>THR1</t>
+  </si>
+  <si>
     <t>YDR234W</t>
   </si>
   <si>
+    <t>ARG3</t>
+  </si>
+  <si>
+    <t>YMR108W</t>
+  </si>
+  <si>
+    <t>YER090W</t>
+  </si>
+  <si>
+    <t>PNP1</t>
+  </si>
+  <si>
+    <t>GLN4</t>
+  </si>
+  <si>
+    <t>THS1</t>
+  </si>
+  <si>
+    <t>HOM6</t>
+  </si>
+  <si>
+    <t>HTS1</t>
+  </si>
+  <si>
+    <t>SER2</t>
+  </si>
+  <si>
+    <t>YOR347C</t>
+  </si>
+  <si>
+    <t>LYS9</t>
+  </si>
+  <si>
+    <t>YPR081C</t>
+  </si>
+  <si>
+    <t>ADE3</t>
+  </si>
+  <si>
+    <t>ADE13</t>
+  </si>
+  <si>
+    <t>YMR105C</t>
+  </si>
+  <si>
+    <t>DED81</t>
+  </si>
+  <si>
+    <t>TYS1</t>
+  </si>
+  <si>
+    <t>IDP2</t>
+  </si>
+  <si>
+    <t>YGR240C</t>
+  </si>
+  <si>
+    <t>YGR157W</t>
+  </si>
+  <si>
+    <t>LEU2</t>
+  </si>
+  <si>
+    <t>YPL134C</t>
+  </si>
+  <si>
+    <t>YBL011W</t>
+  </si>
+  <si>
+    <t>OPI3</t>
+  </si>
+  <si>
+    <t>YCL009C</t>
+  </si>
+  <si>
+    <t>YOR317W</t>
+  </si>
+  <si>
+    <t>HIS7</t>
+  </si>
+  <si>
+    <t>HIS5</t>
+  </si>
+  <si>
+    <t>YFL022C</t>
+  </si>
+  <si>
+    <t>YKL127W</t>
+  </si>
+  <si>
+    <t>YDL166C</t>
+  </si>
+  <si>
+    <t>MET17</t>
+  </si>
+  <si>
+    <t>GUK1</t>
+  </si>
+  <si>
+    <t>YGR209C</t>
+  </si>
+  <si>
+    <t>MET14</t>
+  </si>
+  <si>
+    <t>ARG1</t>
+  </si>
+  <si>
+    <t>HOM3</t>
+  </si>
+  <si>
+    <t>YHL011C</t>
+  </si>
+  <si>
+    <t>YJR137C</t>
+  </si>
+  <si>
+    <t>ORT1</t>
+  </si>
+  <si>
+    <t>YGR124W</t>
+  </si>
+  <si>
+    <t>HIS1</t>
+  </si>
+  <si>
+    <t>TRP3</t>
+  </si>
+  <si>
+    <t>YDL052C</t>
+  </si>
+  <si>
+    <t>ALA1</t>
+  </si>
+  <si>
+    <t>YDL182W</t>
+  </si>
+  <si>
+    <t>PMI40</t>
+  </si>
+  <si>
+    <t>URA6</t>
+  </si>
+  <si>
+    <t>YMR205C</t>
+  </si>
+  <si>
+    <t>YDR353W</t>
+  </si>
+  <si>
+    <t>ILV3</t>
+  </si>
+  <si>
+    <t>FAP7</t>
+  </si>
+  <si>
+    <t>GUS1</t>
+  </si>
+  <si>
+    <t>YDL131W</t>
+  </si>
+  <si>
+    <t>YJL200C</t>
+  </si>
+  <si>
+    <t>YKL181W</t>
+  </si>
+  <si>
+    <t>ARG8</t>
+  </si>
+  <si>
+    <t>YOR175C</t>
+  </si>
+  <si>
+    <t>YGL125W</t>
+  </si>
+  <si>
+    <t>ILV5</t>
+  </si>
+  <si>
+    <t>YKL211C</t>
+  </si>
+  <si>
+    <t>YBR218C</t>
+  </si>
+  <si>
+    <t>YOR303W</t>
+  </si>
+  <si>
+    <t>SEC53</t>
+  </si>
+  <si>
+    <t>PRO3</t>
+  </si>
+  <si>
+    <t>YPR145W</t>
+  </si>
+  <si>
+    <t>ARG4</t>
+  </si>
+  <si>
+    <t>ARO2</t>
+  </si>
+  <si>
+    <t>YJL130C</t>
+  </si>
+  <si>
+    <t>IDP1</t>
+  </si>
+  <si>
+    <t>MES1</t>
+  </si>
+  <si>
     <t>TYR1</t>
   </si>
   <si>
+    <t>MET22</t>
+  </si>
+  <si>
     <t>YOL061W</t>
   </si>
   <si>
-    <t>TYS1</t>
-  </si>
-  <si>
-    <t>YDL131W</t>
-  </si>
-  <si>
-    <t>TRP5</t>
-  </si>
-  <si>
-    <t>IDP2</t>
-  </si>
-  <si>
-    <t>LYS9</t>
-  </si>
-  <si>
-    <t>MET6</t>
-  </si>
-  <si>
-    <t>CDS1</t>
-  </si>
-  <si>
-    <t>YGL125W</t>
-  </si>
-  <si>
-    <t>ALE1</t>
-  </si>
-  <si>
-    <t>HIS1</t>
-  </si>
-  <si>
-    <t>YOR303W</t>
-  </si>
-  <si>
-    <t>YER053C</t>
-  </si>
-  <si>
-    <t>YMR271C</t>
-  </si>
-  <si>
-    <t>GLN1</t>
-  </si>
-  <si>
-    <t>YOL059W</t>
-  </si>
-  <si>
-    <t>ILS1</t>
-  </si>
-  <si>
-    <t>APA1</t>
-  </si>
-  <si>
-    <t>PSD2</t>
-  </si>
-  <si>
-    <t>YDR452W</t>
-  </si>
-  <si>
-    <t>YMR108W</t>
-  </si>
-  <si>
-    <t>HIS2</t>
-  </si>
-  <si>
-    <t>HOM6</t>
-  </si>
-  <si>
-    <t>CHO1</t>
-  </si>
-  <si>
-    <t>YML106W</t>
-  </si>
-  <si>
-    <t>HIS7</t>
-  </si>
-  <si>
-    <t>ARG3</t>
-  </si>
-  <si>
-    <t>ILV3</t>
-  </si>
-  <si>
-    <t>YJR077C</t>
-  </si>
-  <si>
-    <t>SER1</t>
-  </si>
-  <si>
-    <t>YGR209C</t>
-  </si>
-  <si>
-    <t>THS1</t>
-  </si>
-  <si>
-    <t>YLR043C</t>
-  </si>
-  <si>
-    <t>PGK1</t>
-  </si>
-  <si>
-    <t>HIS4</t>
-  </si>
-  <si>
-    <t>HIS3</t>
-  </si>
-  <si>
-    <t>MET14</t>
-  </si>
-  <si>
-    <t>DPS1</t>
-  </si>
-  <si>
-    <t>LEU4</t>
-  </si>
-  <si>
-    <t>YJR073C</t>
-  </si>
-  <si>
-    <t>LYS12</t>
-  </si>
-  <si>
-    <t>YKL127W</t>
-  </si>
-  <si>
-    <t>YJR137C</t>
-  </si>
-  <si>
-    <t>YOR175C</t>
-  </si>
-  <si>
-    <t>ADE12</t>
-  </si>
-  <si>
-    <t>LYS1</t>
-  </si>
-  <si>
-    <t>LEU2</t>
-  </si>
-  <si>
-    <t>THR1</t>
-  </si>
-  <si>
-    <t>ARO7</t>
-  </si>
-  <si>
-    <t>PRO1</t>
-  </si>
-  <si>
-    <t>YMR105C</t>
-  </si>
-  <si>
-    <t>YLR028C</t>
-  </si>
-  <si>
-    <t>ADE13</t>
-  </si>
-  <si>
-    <t>YER099C</t>
-  </si>
-  <si>
-    <t>YOL086C</t>
-  </si>
-  <si>
-    <t>OPI3</t>
-  </si>
-  <si>
-    <t>YFL022C</t>
-  </si>
-  <si>
-    <t>URA6</t>
-  </si>
-  <si>
-    <t>YBR121C</t>
-  </si>
-  <si>
-    <t>MET2</t>
-  </si>
-  <si>
-    <t>MET22</t>
-  </si>
-  <si>
-    <t>YDL166C</t>
-  </si>
-  <si>
-    <t>YBR218C</t>
-  </si>
-  <si>
     <t>YDR035W</t>
-  </si>
-  <si>
-    <t>PRO3</t>
-  </si>
-  <si>
-    <t>PSD1</t>
-  </si>
-  <si>
-    <t>YDL168W</t>
-  </si>
-  <si>
-    <t>GLN4</t>
-  </si>
-  <si>
-    <t>ARG1</t>
-  </si>
-  <si>
-    <t>YPL134C</t>
-  </si>
-  <si>
-    <t>SHM2</t>
-  </si>
-  <si>
-    <t>ILV2</t>
-  </si>
-  <si>
-    <t>SHM1</t>
-  </si>
-  <si>
-    <t>YGL062W</t>
-  </si>
-  <si>
-    <t>YAL038W</t>
-  </si>
-  <si>
-    <t>YPL023C</t>
-  </si>
-  <si>
-    <t>YMR205C</t>
-  </si>
-  <si>
-    <t>ARG7</t>
-  </si>
-  <si>
-    <t>AGC1</t>
-  </si>
-  <si>
-    <t>YPR145W</t>
-  </si>
-  <si>
-    <t>ADE3</t>
-  </si>
-  <si>
-    <t>YBR249C</t>
-  </si>
-  <si>
-    <t>YDR353W</t>
-  </si>
-  <si>
-    <t>YGR157W</t>
-  </si>
-  <si>
-    <t>YJL130C</t>
-  </si>
-  <si>
-    <t>SER2</t>
-  </si>
-  <si>
-    <t>CDC60</t>
-  </si>
-  <si>
-    <t>FUM1</t>
-  </si>
-  <si>
-    <t>YHR201C</t>
-  </si>
-  <si>
-    <t>YGR124W</t>
-  </si>
-  <si>
-    <t>YGR240C</t>
-  </si>
-  <si>
-    <t>ARG5,6</t>
-  </si>
-  <si>
-    <t>YLR060W</t>
-  </si>
-  <si>
-    <t>TRP4</t>
-  </si>
-  <si>
-    <t>YDL022W</t>
-  </si>
-  <si>
-    <t>ALA1</t>
-  </si>
-  <si>
-    <t>ARO2</t>
-  </si>
-  <si>
-    <t>YNK1</t>
-  </si>
-  <si>
-    <t>YER090W</t>
-  </si>
-  <si>
-    <t>YKL211C</t>
-  </si>
-  <si>
-    <t>ORT1</t>
-  </si>
-  <si>
-    <t>ILV5</t>
-  </si>
-  <si>
-    <t>YOR347C</t>
-  </si>
-  <si>
-    <t>YMR120C</t>
-  </si>
-  <si>
-    <t>YDL052C</t>
-  </si>
-  <si>
-    <t>HIS5</t>
-  </si>
-  <si>
-    <t>YDL182W</t>
-  </si>
-  <si>
-    <t>LYS4</t>
-  </si>
-  <si>
-    <t>YBR145W</t>
-  </si>
-  <si>
-    <t>ARG8</t>
-  </si>
-  <si>
-    <t>YJR109C</t>
-  </si>
-  <si>
-    <t>DED81</t>
-  </si>
-  <si>
-    <t>HOM3</t>
-  </si>
-  <si>
-    <t>YFR030W</t>
-  </si>
-  <si>
-    <t>HTS1</t>
-  </si>
-  <si>
-    <t>GUS1</t>
-  </si>
-  <si>
-    <t>PPA2</t>
-  </si>
-  <si>
-    <t>MES1</t>
-  </si>
-  <si>
-    <t>YHL011C</t>
-  </si>
-  <si>
-    <t>ARO1</t>
-  </si>
-  <si>
-    <t>TRP3</t>
-  </si>
-  <si>
-    <t>YKL181W</t>
-  </si>
-  <si>
-    <t>YOR222W</t>
-  </si>
-  <si>
-    <t>IDP1</t>
-  </si>
-  <si>
-    <t>NCE103</t>
-  </si>
-  <si>
-    <t>YHR011W</t>
-  </si>
-  <si>
-    <t>YDR023W</t>
-  </si>
-  <si>
-    <t>YJL200C</t>
-  </si>
-  <si>
-    <t>ARG4</t>
-  </si>
-  <si>
-    <t>GUK1</t>
-  </si>
-  <si>
-    <t>THR4</t>
-  </si>
-  <si>
-    <t>PRO2</t>
-  </si>
-  <si>
-    <t>FBA1</t>
-  </si>
-  <si>
-    <t>YND1</t>
-  </si>
-  <si>
-    <t>YPR081C</t>
-  </si>
-  <si>
-    <t>YCL009C</t>
-  </si>
-  <si>
-    <t>YDR226W</t>
-  </si>
-  <si>
-    <t>ARO8</t>
-  </si>
-  <si>
-    <t>VAS1</t>
-  </si>
-  <si>
-    <t>GDH2</t>
-  </si>
-  <si>
-    <t>TRR1</t>
-  </si>
-  <si>
-    <t>MET17</t>
   </si>
 </sst>
 </file>
@@ -806,7 +818,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A146"/>
+  <dimension ref="A1:A150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1542,6 +1554,26 @@
         <v>144</v>
       </c>
     </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" t="s">
+        <v>148</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
